--- a/7/2/2/1/2/Sociedades financieras 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/2/1/2/Sociedades financieras 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Serie</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO75"/>
+  <dimension ref="A1:AO76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9977,49 +9980,49 @@
         <v>114</v>
       </c>
       <c r="B75">
-        <v>745469</v>
+        <v>745362</v>
       </c>
       <c r="C75">
         <v>496</v>
       </c>
       <c r="D75">
-        <v>68885</v>
+        <v>68750</v>
       </c>
       <c r="E75">
-        <v>39928</v>
+        <v>39949</v>
       </c>
       <c r="F75">
-        <v>28958</v>
+        <v>28802</v>
       </c>
       <c r="G75">
-        <v>200248</v>
+        <v>200287</v>
       </c>
       <c r="H75">
         <v>23836</v>
       </c>
       <c r="I75">
-        <v>176412</v>
+        <v>176451</v>
       </c>
       <c r="J75">
         <v>-455</v>
       </c>
       <c r="K75">
-        <v>224959</v>
+        <v>224958</v>
       </c>
       <c r="L75">
         <v>37771</v>
       </c>
       <c r="M75">
-        <v>187187</v>
+        <v>187186</v>
       </c>
       <c r="N75">
-        <v>220689</v>
+        <v>220833</v>
       </c>
       <c r="O75">
-        <v>129906</v>
+        <v>130088</v>
       </c>
       <c r="P75">
-        <v>2841</v>
+        <v>2803</v>
       </c>
       <c r="Q75">
         <v>87942</v>
@@ -10034,13 +10037,13 @@
         <v>306</v>
       </c>
       <c r="U75">
-        <v>28844</v>
+        <v>28691</v>
       </c>
       <c r="V75">
-        <v>-8391</v>
+        <v>-8088</v>
       </c>
       <c r="W75">
-        <v>753860</v>
+        <v>753450</v>
       </c>
       <c r="X75">
         <v>181548</v>
@@ -10052,28 +10055,28 @@
         <v>72516</v>
       </c>
       <c r="AA75">
-        <v>91688</v>
+        <v>92053</v>
       </c>
       <c r="AB75">
         <v>22361</v>
       </c>
       <c r="AC75">
-        <v>69327</v>
+        <v>69691</v>
       </c>
       <c r="AD75">
-        <v>41675</v>
+        <v>41175</v>
       </c>
       <c r="AE75">
-        <v>30414</v>
+        <v>30409</v>
       </c>
       <c r="AF75">
-        <v>11261</v>
+        <v>10766</v>
       </c>
       <c r="AG75">
-        <v>207816</v>
+        <v>207755</v>
       </c>
       <c r="AH75">
-        <v>130525</v>
+        <v>130463</v>
       </c>
       <c r="AI75">
         <v>26518</v>
@@ -10094,7 +10097,132 @@
         <v>1532</v>
       </c>
       <c r="AO75">
-        <v>27647</v>
+        <v>27435</v>
+      </c>
+    </row>
+    <row r="76" spans="1:41">
+      <c r="A76" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76">
+        <v>751905</v>
+      </c>
+      <c r="C76">
+        <v>439</v>
+      </c>
+      <c r="D76">
+        <v>71790</v>
+      </c>
+      <c r="E76">
+        <v>41581</v>
+      </c>
+      <c r="F76">
+        <v>30209</v>
+      </c>
+      <c r="G76">
+        <v>202028</v>
+      </c>
+      <c r="H76">
+        <v>33053</v>
+      </c>
+      <c r="I76">
+        <v>168976</v>
+      </c>
+      <c r="J76">
+        <v>-578</v>
+      </c>
+      <c r="K76">
+        <v>233958</v>
+      </c>
+      <c r="L76">
+        <v>44204</v>
+      </c>
+      <c r="M76">
+        <v>189754</v>
+      </c>
+      <c r="N76">
+        <v>211470</v>
+      </c>
+      <c r="O76">
+        <v>121369</v>
+      </c>
+      <c r="P76">
+        <v>2312</v>
+      </c>
+      <c r="Q76">
+        <v>87789</v>
+      </c>
+      <c r="R76">
+        <v>1392</v>
+      </c>
+      <c r="S76">
+        <v>302</v>
+      </c>
+      <c r="T76">
+        <v>302</v>
+      </c>
+      <c r="U76">
+        <v>31102</v>
+      </c>
+      <c r="V76">
+        <v>-5002</v>
+      </c>
+      <c r="W76">
+        <v>756907</v>
+      </c>
+      <c r="X76">
+        <v>192716</v>
+      </c>
+      <c r="Y76">
+        <v>119399</v>
+      </c>
+      <c r="Z76">
+        <v>73318</v>
+      </c>
+      <c r="AA76">
+        <v>96942</v>
+      </c>
+      <c r="AB76">
+        <v>31601</v>
+      </c>
+      <c r="AC76">
+        <v>65341</v>
+      </c>
+      <c r="AD76">
+        <v>47675</v>
+      </c>
+      <c r="AE76">
+        <v>37992</v>
+      </c>
+      <c r="AF76">
+        <v>9683</v>
+      </c>
+      <c r="AG76">
+        <v>199005</v>
+      </c>
+      <c r="AH76">
+        <v>123096</v>
+      </c>
+      <c r="AI76">
+        <v>26038</v>
+      </c>
+      <c r="AJ76">
+        <v>49871</v>
+      </c>
+      <c r="AK76">
+        <v>147978</v>
+      </c>
+      <c r="AL76">
+        <v>43693</v>
+      </c>
+      <c r="AM76">
+        <v>42184</v>
+      </c>
+      <c r="AN76">
+        <v>1509</v>
+      </c>
+      <c r="AO76">
+        <v>28897</v>
       </c>
     </row>
   </sheetData>
